--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaky\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC20FA6-9BAF-436B-80C2-8B36818C32EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B99F8C5-EAFD-43A6-BBFC-5E1AA4B385C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26190" yWindow="4005" windowWidth="16410" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29235" yWindow="3225" windowWidth="16410" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Title</t>
   </si>
   <si>
     <t>Article</t>
+  </si>
+  <si>
+    <t>Posted</t>
   </si>
 </sst>
 </file>
@@ -388,21 +391,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
